--- a/sampleData.xlsx
+++ b/sampleData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ComputerScience_projects\GitBound\FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://slcqc-my.sharepoint.com/personal/felix_perreault_stu_crc-lennox_qc_ca/Documents/Documents/GitHub/FinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4C82D7-5653-4043-9A05-91422789A47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{0F4C82D7-5653-4043-9A05-91422789A47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D99DCD97-9389-4338-BB4C-7DA0400D144D}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manager" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>UserID</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Genre</t>
   </si>
   <si>
-    <t>RunningTime</t>
-  </si>
-  <si>
     <t>Manager</t>
   </si>
   <si>
@@ -96,6 +93,24 @@
   </si>
   <si>
     <t>{15:00, ShowroomID:5}</t>
+  </si>
+  <si>
+    <t>Felix Perreault</t>
+  </si>
+  <si>
+    <t>{8}</t>
+  </si>
+  <si>
+    <t>{18:00,ShowroomID:1}</t>
+  </si>
+  <si>
+    <t>The Running Man</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>RunningTime (min)</t>
   </si>
 </sst>
 </file>
@@ -159,12 +174,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -174,31 +188,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,43 +495,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="6">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -531,51 +544,63 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1328125" customWidth="1"/>
-    <col min="4" max="4" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="7">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>82178</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>99326</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
   </sheetData>
@@ -585,39 +610,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01828C8-45BD-45FE-AC3F-B296F70539FC}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="9">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>5</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>40</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>18</v>
+      <c r="C2" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>50</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -630,58 +666,71 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.9296875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.06640625" style="10"/>
-    <col min="3" max="3" width="11.3984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.53125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.06640625" style="10"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="13">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
         <v>273</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="8">
         <v>283</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="8">
         <v>5</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="11">
         <v>0.625</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="12"/>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>274</v>
+      </c>
+      <c r="B3" s="8">
+        <v>284</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -690,38 +739,49 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825C0597-ACC8-4DF6-97F7-872C6834EF82}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -731,30 +791,53 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF9B9BD-F192-4B59-958F-1B9059E987D8}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>284</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="8">
+        <v>133</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/sampleData.xlsx
+++ b/sampleData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://slcqc-my.sharepoint.com/personal/felix_perreault_stu_crc-lennox_qc_ca/Documents/Documents/GitHub/FinalProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://slcqc-my.sharepoint.com/personal/serena_shushack_stu_crc-lennox_qc_ca/Documents/Fall 2025/FinalProject/FinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{0F4C82D7-5653-4043-9A05-91422789A47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D99DCD97-9389-4338-BB4C-7DA0400D144D}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{0F4C82D7-5653-4043-9A05-91422789A47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6C90D67-1560-4F92-9B69-1823416868CC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="15576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manager" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>UserID</t>
   </si>
@@ -111,13 +111,28 @@
   </si>
   <si>
     <t>RunningTime (min)</t>
+  </si>
+  <si>
+    <t>Serena Shushack</t>
+  </si>
+  <si>
+    <t>{9}</t>
+  </si>
+  <si>
+    <t>{21:00, ShowroomID:3}</t>
+  </si>
+  <si>
+    <t>Frankenstein</t>
+  </si>
+  <si>
+    <t>Horror</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -199,9 +214,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -495,18 +507,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -520,7 +532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -544,18 +556,18 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -569,7 +581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="6">
         <v>82178</v>
       </c>
@@ -583,8 +595,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+    <row r="3" spans="1:4">
+      <c r="A3" s="11">
         <v>99326</v>
       </c>
       <c r="B3" t="s">
@@ -597,10 +609,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
+      <c r="A4" s="11">
+        <v>40521</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
     </row>
   </sheetData>
@@ -610,20 +633,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01828C8-45BD-45FE-AC3F-B296F70539FC}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -634,7 +657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="8">
         <v>5</v>
       </c>
@@ -645,7 +668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -654,6 +677,17 @@
       </c>
       <c r="C3" s="8" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>50</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -666,19 +700,19 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -695,8 +729,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+    <row r="2" spans="1:5">
+      <c r="A2" s="9">
         <v>273</v>
       </c>
       <c r="B2" s="8">
@@ -705,15 +739,15 @@
       <c r="C2" s="8">
         <v>5</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>0.625</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+    <row r="3" spans="1:5">
+      <c r="A3" s="12">
         <v>274</v>
       </c>
       <c r="B3" s="8">
@@ -722,15 +756,29 @@
       <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>0.75</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9">
+        <v>275</v>
+      </c>
+      <c r="B4" s="8">
+        <v>285</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.875</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -739,19 +787,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825C0597-ACC8-4DF6-97F7-872C6834EF82}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -762,7 +810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>12</v>
       </c>
@@ -773,7 +821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>14</v>
       </c>
@@ -782,6 +830,17 @@
       </c>
       <c r="C3" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -791,22 +850,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF9B9BD-F192-4B59-958F-1B9059E987D8}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -823,7 +882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="8">
         <v>284</v>
       </c>
@@ -838,6 +897,23 @@
       </c>
       <c r="E3" s="8" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="8">
+        <v>285</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="8">
+        <v>149</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/sampleData.xlsx
+++ b/sampleData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://slcqc-my.sharepoint.com/personal/serena_shushack_stu_crc-lennox_qc_ca/Documents/Fall 2025/FinalProject/FinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{0F4C82D7-5653-4043-9A05-91422789A47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6C90D67-1560-4F92-9B69-1823416868CC}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:1_{0F4C82D7-5653-4043-9A05-91422789A47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A59FB9A-C1CA-478C-820C-F7614978469C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="15576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="15576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manager" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>UserID</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>Horror</t>
+  </si>
+  <si>
+    <t>Nuremburg</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>Serena  &amp; Felix</t>
   </si>
 </sst>
 </file>
@@ -556,7 +565,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -633,10 +642,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01828C8-45BD-45FE-AC3F-B296F70539FC}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -659,18 +668,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="8">
         <v>50</v>
@@ -684,10 +693,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>90</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>40</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +731,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -789,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825C0597-ACC8-4DF6-97F7-872C6834EF82}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -852,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF9B9BD-F192-4B59-958F-1B9059E987D8}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -882,6 +913,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8">
+        <v>283</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="8">
+        <v>148</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8">
         <v>284</v>

--- a/sampleData.xlsx
+++ b/sampleData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://slcqc-my.sharepoint.com/personal/serena_shushack_stu_crc-lennox_qc_ca/Documents/Fall 2025/FinalProject/FinalProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ComputerScience_projects\GitBound\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{0F4C82D7-5653-4043-9A05-91422789A47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6C90D67-1560-4F92-9B69-1823416868CC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98E4155-D515-423E-BF73-F4BE079C1404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="15576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manager" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>UserID</t>
   </si>
@@ -126,13 +126,16 @@
   </si>
   <si>
     <t>Horror</t>
+  </si>
+  <si>
+    <t>There Will Be Blood</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -224,6 +227,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,14 +520,14 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.1328125" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -532,7 +541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -559,15 +568,15 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.46484375" customWidth="1"/>
+    <col min="3" max="3" width="21.1328125" customWidth="1"/>
+    <col min="4" max="4" width="14.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -581,7 +590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>82178</v>
       </c>
@@ -595,7 +604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="11">
         <v>99326</v>
       </c>
@@ -609,7 +618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="11">
         <v>40521</v>
       </c>
@@ -623,7 +632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
     </row>
   </sheetData>
@@ -639,14 +648,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.46484375" customWidth="1"/>
+    <col min="2" max="2" width="20.1328125" customWidth="1"/>
+    <col min="3" max="3" width="22.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -657,7 +666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="8">
         <v>5</v>
       </c>
@@ -668,7 +677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -679,7 +688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -703,16 +712,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.46484375" customWidth="1"/>
+    <col min="3" max="3" width="15.1328125" customWidth="1"/>
+    <col min="4" max="4" width="20.86328125" customWidth="1"/>
+    <col min="5" max="5" width="21.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -729,7 +738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="9">
         <v>273</v>
       </c>
@@ -746,7 +755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="12">
         <v>274</v>
       </c>
@@ -763,7 +772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="9">
         <v>275</v>
       </c>
@@ -793,13 +802,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="29.86328125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -810,7 +819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>12</v>
       </c>
@@ -821,7 +830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>14</v>
       </c>
@@ -832,7 +841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>16</v>
       </c>
@@ -853,36 +862,53 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.53125" customWidth="1"/>
+    <col min="3" max="3" width="14.86328125" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="14">
+        <v>283</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="14">
+        <v>158</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="8">
         <v>284</v>
       </c>
@@ -899,7 +925,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="8">
         <v>285</v>
       </c>
